--- a/verilog/VLSI_experiment/2023_VLSI_Project02/image1_X_k.xlsx
+++ b/verilog/VLSI_experiment/2023_VLSI_Project02/image1_X_k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yubeenjo/VSCode/verilog/VLSI_experiment/2023_VLSI_Project02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163274D-A9EE-FC4D-B704-1D873168A1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D040BAD1-FCF9-074B-A6E8-597AF508ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="16940" windowHeight="17440" xr2:uid="{CE0C18D2-3204-1C4F-9891-E1C99282F422}"/>
+    <workbookView xWindow="22540" yWindow="480" windowWidth="11060" windowHeight="20520" xr2:uid="{CE0C18D2-3204-1C4F-9891-E1C99282F422}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,8 +137,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,9 +463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1147256-D11F-1246-B57B-AADCC4523085}">
   <dimension ref="A4:HR19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="167" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="17"/>
@@ -462,7 +474,7 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>639</v>
       </c>
       <c r="D4">
@@ -2493,7 +2505,7 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>15</v>
       </c>
       <c r="D7">
@@ -3847,7 +3859,7 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>19</v>
       </c>
       <c r="D9">
@@ -5201,7 +5213,7 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>-1</v>
       </c>
       <c r="D11">
@@ -6555,7 +6567,7 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>5</v>
       </c>
       <c r="D13">
@@ -7909,7 +7921,7 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15">
@@ -9263,7 +9275,7 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>-4</v>
       </c>
       <c r="D17">

--- a/verilog/VLSI_experiment/2023_VLSI_Project02/image1_X_k.xlsx
+++ b/verilog/VLSI_experiment/2023_VLSI_Project02/image1_X_k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yubeenjo/VSCode/verilog/VLSI_experiment/2023_VLSI_Project02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D040BAD1-FCF9-074B-A6E8-597AF508ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303A9EC-F595-D44B-8815-CB8F6B163F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22540" yWindow="480" windowWidth="11060" windowHeight="20520" xr2:uid="{CE0C18D2-3204-1C4F-9891-E1C99282F422}"/>
   </bookViews>
@@ -109,18 +109,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,11 +131,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -463,9 +454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1147256-D11F-1246-B57B-AADCC4523085}">
   <dimension ref="A4:HR19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="17"/>
@@ -474,7 +465,7 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>639</v>
       </c>
       <c r="D4">
@@ -2505,7 +2496,7 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>15</v>
       </c>
       <c r="D7">
@@ -9275,7 +9266,7 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>-4</v>
       </c>
       <c r="D17">
